--- a/data/league_data/spain/19/spain_defending.xlsx
+++ b/data/league_data/spain/19/spain_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFA1E8F-ECE7-8540-A32E-7FB3F613C5D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCED119-C0DA-0E41-98E0-F757AC2CBCCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="594">
   <si>
     <t>Blocks</t>
   </si>
@@ -1105,9 +1105,6 @@
     <t>Rubén Pardo</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Gonzalo Melero</t>
   </si>
   <si>
@@ -1796,6 +1793,15 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2662,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13623,7 +13629,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>28</v>
@@ -23788,7 +23794,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>28</v>
@@ -27208,7 +27214,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>325</v>
+        <v>593</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>28</v>
@@ -28536,7 +28542,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>361</v>
+        <v>592</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>78</v>
@@ -28631,7 +28637,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>28</v>
@@ -28726,7 +28732,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>191</v>
@@ -28821,7 +28827,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>28</v>
@@ -28916,7 +28922,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>28</v>
@@ -29011,7 +29017,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>191</v>
@@ -29106,7 +29112,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>28</v>
@@ -29201,7 +29207,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>28</v>
@@ -29296,7 +29302,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>40</v>
@@ -29391,7 +29397,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>136</v>
@@ -29486,7 +29492,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>28</v>
@@ -29581,7 +29587,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>28</v>
@@ -29676,7 +29682,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>28</v>
@@ -29771,7 +29777,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>28</v>
@@ -29866,7 +29872,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>28</v>
@@ -29961,7 +29967,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>180</v>
@@ -30056,10 +30062,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>42</v>
@@ -30151,7 +30157,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>78</v>
@@ -30246,7 +30252,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>28</v>
@@ -30341,7 +30347,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>28</v>
@@ -30436,7 +30442,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>28</v>
@@ -30531,7 +30537,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>47</v>
@@ -30626,7 +30632,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>28</v>
@@ -30721,7 +30727,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>28</v>
@@ -30812,7 +30818,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>28</v>
@@ -30907,7 +30913,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>297</v>
@@ -31002,7 +31008,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>28</v>
@@ -31097,7 +31103,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>28</v>
@@ -31192,7 +31198,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>28</v>
@@ -31287,7 +31293,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>47</v>
@@ -31382,7 +31388,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>28</v>
@@ -31477,7 +31483,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>28</v>
@@ -31572,7 +31578,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>113</v>
@@ -31667,7 +31673,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>45</v>
@@ -31760,7 +31766,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>28</v>
@@ -31855,7 +31861,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>385</v>
+        <v>591</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>28</v>
@@ -31950,7 +31956,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>110</v>
@@ -32045,10 +32051,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>50</v>
@@ -32140,7 +32146,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>28</v>
@@ -32235,7 +32241,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>28</v>
@@ -32330,7 +32336,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>113</v>
@@ -32425,10 +32431,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>37</v>
@@ -32520,7 +32526,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>28</v>
@@ -32615,7 +32621,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>28</v>
@@ -32710,7 +32716,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>40</v>
@@ -32805,7 +32811,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>200</v>
@@ -32900,7 +32906,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>28</v>
@@ -32995,7 +33001,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>28</v>
@@ -33088,7 +33094,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>28</v>
@@ -33183,7 +33189,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>113</v>
@@ -33278,7 +33284,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>28</v>
@@ -33373,7 +33379,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>28</v>
@@ -33468,7 +33474,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>28</v>
@@ -33563,10 +33569,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>29</v>
@@ -33654,7 +33660,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>40</v>
@@ -33749,7 +33755,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>331</v>
@@ -33844,7 +33850,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>28</v>
@@ -33939,7 +33945,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>78</v>
@@ -34129,7 +34135,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>191</v>
@@ -34224,7 +34230,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>198</v>
@@ -34319,7 +34325,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>28</v>
@@ -34414,7 +34420,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>28</v>
@@ -34509,7 +34515,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>28</v>
@@ -34604,10 +34610,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>92</v>
@@ -34699,10 +34705,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>48</v>
@@ -34794,10 +34800,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>50</v>
@@ -34889,7 +34895,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>28</v>
@@ -34984,7 +34990,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>183</v>
@@ -35079,7 +35085,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>28</v>
@@ -35174,7 +35180,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>225</v>
@@ -35269,7 +35275,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>47</v>
@@ -35364,7 +35370,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>28</v>
@@ -35459,7 +35465,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>28</v>
@@ -35554,7 +35560,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>28</v>
@@ -35649,7 +35655,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>110</v>
@@ -35744,10 +35750,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>50</v>
@@ -35839,7 +35845,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>75</v>
@@ -35934,7 +35940,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>303</v>
@@ -36029,7 +36035,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>237</v>
@@ -36124,7 +36130,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>110</v>
@@ -36219,7 +36225,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>156</v>
@@ -36314,7 +36320,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>297</v>
@@ -36409,7 +36415,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>358</v>
@@ -36504,10 +36510,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>143</v>
@@ -36599,7 +36605,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>40</v>
@@ -36694,7 +36700,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>269</v>
@@ -36789,7 +36795,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>28</v>
@@ -36884,7 +36890,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>28</v>
@@ -36979,7 +36985,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>28</v>
@@ -37074,7 +37080,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>156</v>
@@ -37169,7 +37175,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>28</v>
@@ -37264,7 +37270,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>78</v>
@@ -37359,7 +37365,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>28</v>
@@ -37454,10 +37460,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>48</v>
@@ -37549,7 +37555,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>28</v>
@@ -37644,7 +37650,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>28</v>
@@ -37737,7 +37743,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>78</v>
@@ -37832,7 +37838,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>28</v>
@@ -37927,7 +37933,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>28</v>
@@ -38022,10 +38028,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>48</v>
@@ -38117,7 +38123,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>110</v>
@@ -38212,7 +38218,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>28</v>
@@ -38307,7 +38313,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>28</v>
@@ -38402,7 +38408,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>180</v>
@@ -38592,7 +38598,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>28</v>
@@ -38687,7 +38693,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>28</v>
@@ -38778,7 +38784,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>269</v>
@@ -38873,7 +38879,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>40</v>
@@ -38968,10 +38974,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>143</v>
@@ -39063,7 +39069,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>75</v>
@@ -39158,10 +39164,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>48</v>
@@ -39253,7 +39259,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>28</v>
@@ -39348,7 +39354,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>47</v>
@@ -39443,7 +39449,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>28</v>
@@ -39538,7 +39544,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>28</v>
@@ -39633,7 +39639,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>110</v>
@@ -39724,10 +39730,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>37</v>
@@ -39819,7 +39825,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>180</v>
@@ -39914,10 +39920,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>42</v>
@@ -40009,7 +40015,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>28</v>
@@ -40104,7 +40110,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>28</v>
@@ -40199,7 +40205,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>28</v>
@@ -40294,7 +40300,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>28</v>
@@ -40389,7 +40395,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>110</v>
@@ -40484,7 +40490,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>147</v>
@@ -40579,7 +40585,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>191</v>
@@ -40674,7 +40680,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>28</v>
@@ -40769,7 +40775,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>218</v>
@@ -40864,7 +40870,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>191</v>
@@ -40959,10 +40965,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C404" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>37</v>
@@ -41054,7 +41060,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>28</v>
@@ -41149,7 +41155,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>28</v>
@@ -41244,7 +41250,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>28</v>
@@ -41339,7 +41345,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>40</v>
@@ -41434,7 +41440,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>47</v>
@@ -41529,7 +41535,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>47</v>
@@ -41624,10 +41630,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C411" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>508</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>48</v>
@@ -41719,7 +41725,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>28</v>
@@ -41812,7 +41818,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>78</v>
@@ -41907,7 +41913,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>28</v>
@@ -42002,7 +42008,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>28</v>
@@ -42097,7 +42103,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>28</v>
@@ -42192,7 +42198,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>28</v>
@@ -42287,7 +42293,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>28</v>
@@ -42382,10 +42388,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>92</v>
@@ -42477,7 +42483,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>28</v>
@@ -42667,10 +42673,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C422" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>50</v>
@@ -42762,7 +42768,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>183</v>
@@ -42857,10 +42863,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>29</v>
@@ -42948,7 +42954,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>218</v>
@@ -43043,7 +43049,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>28</v>
@@ -43136,7 +43142,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>198</v>
@@ -43231,7 +43237,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>28</v>
@@ -43326,7 +43332,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>156</v>
@@ -43421,7 +43427,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>28</v>
@@ -43512,7 +43518,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>147</v>
@@ -43607,7 +43613,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>28</v>
@@ -43702,7 +43708,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>28</v>
@@ -43797,7 +43803,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>28</v>
@@ -43892,7 +43898,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>147</v>
@@ -43987,10 +43993,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>42</v>
@@ -44082,7 +44088,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>78</v>
@@ -44177,7 +44183,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>28</v>
@@ -44272,7 +44278,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>28</v>
@@ -44367,7 +44373,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>28</v>
@@ -44462,7 +44468,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>28</v>
@@ -44557,7 +44563,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>40</v>
@@ -44652,7 +44658,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>28</v>
@@ -44747,7 +44753,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>47</v>
@@ -44842,7 +44848,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>28</v>
@@ -44937,7 +44943,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>331</v>
@@ -45028,7 +45034,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>28</v>
@@ -45123,7 +45129,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>28</v>
@@ -45218,7 +45224,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>28</v>
@@ -45309,7 +45315,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>28</v>
@@ -45400,7 +45406,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>237</v>
@@ -45495,7 +45501,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>28</v>
@@ -45590,7 +45596,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>269</v>
@@ -45683,7 +45689,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>28</v>
@@ -45778,7 +45784,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>28</v>
@@ -45873,7 +45879,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>198</v>
@@ -45968,7 +45974,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>237</v>
@@ -46063,7 +46069,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>191</v>
@@ -46158,7 +46164,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>78</v>
@@ -46253,7 +46259,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>200</v>
@@ -46348,7 +46354,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>60</v>
@@ -46443,7 +46449,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>40</v>
@@ -46538,7 +46544,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>28</v>
@@ -46633,7 +46639,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>110</v>
@@ -46728,7 +46734,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>28</v>
@@ -46823,7 +46829,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>110</v>
@@ -46918,7 +46924,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>191</v>
@@ -47013,7 +47019,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>28</v>
@@ -47108,7 +47114,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>28</v>
@@ -47203,7 +47209,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>28</v>
@@ -47298,7 +47304,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>28</v>
@@ -47393,7 +47399,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>28</v>
@@ -47488,7 +47494,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>28</v>
@@ -47583,7 +47589,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>28</v>
@@ -47678,7 +47684,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>110</v>
@@ -47773,7 +47779,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>237</v>
@@ -47868,7 +47874,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>28</v>
@@ -47963,10 +47969,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>50</v>
@@ -48058,7 +48064,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>28</v>
@@ -48151,7 +48157,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>113</v>
@@ -48246,7 +48252,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>28</v>
@@ -48341,7 +48347,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>28</v>
@@ -48436,7 +48442,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>47</v>
@@ -48531,7 +48537,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>28</v>
@@ -48626,7 +48632,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>28</v>
@@ -48721,7 +48727,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>136</v>
@@ -48816,7 +48822,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>28</v>
@@ -48911,7 +48917,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>136</v>
@@ -49006,7 +49012,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>28</v>
@@ -49101,7 +49107,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>28</v>
@@ -49196,7 +49202,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>28</v>
@@ -49291,7 +49297,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>28</v>
@@ -49382,7 +49388,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>28</v>
@@ -49475,7 +49481,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>110</v>
@@ -49566,7 +49572,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>28</v>
@@ -49657,7 +49663,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>28</v>
@@ -49752,7 +49758,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>28</v>
@@ -49847,7 +49853,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>172</v>
@@ -49942,7 +49948,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>28</v>
@@ -50037,7 +50043,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>136</v>

--- a/data/league_data/spain/19/spain_defending.xlsx
+++ b/data/league_data/spain/19/spain_defending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCED119-C0DA-0E41-98E0-F757AC2CBCCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E89F718-A556-AC4B-B54A-4AD339B041D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1615,9 +1615,6 @@
     <t>Cheick Doukouré</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Ignasi Miquel</t>
   </si>
   <si>
@@ -1802,6 +1799,9 @@
   </si>
   <si>
     <t>Juanfran Moreno</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2668,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13629,7 +13629,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>28</v>
@@ -23794,7 +23794,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>28</v>
@@ -27214,7 +27214,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>28</v>
@@ -28542,7 +28542,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>78</v>
@@ -31861,7 +31861,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>28</v>
@@ -44088,7 +44088,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>78</v>
@@ -44183,7 +44183,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>28</v>
@@ -44278,7 +44278,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>28</v>
@@ -44373,7 +44373,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>28</v>
@@ -44468,7 +44468,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>28</v>
@@ -44563,7 +44563,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>40</v>
@@ -44658,7 +44658,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>28</v>
@@ -44753,7 +44753,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>47</v>
@@ -44848,7 +44848,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>28</v>
@@ -44943,7 +44943,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>331</v>
@@ -45034,7 +45034,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>28</v>
@@ -45129,7 +45129,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>28</v>
@@ -45224,7 +45224,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>28</v>
@@ -45315,7 +45315,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>28</v>
@@ -45406,7 +45406,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>237</v>
@@ -45501,7 +45501,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>28</v>
@@ -45596,7 +45596,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>269</v>
@@ -45689,7 +45689,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>28</v>
@@ -45784,7 +45784,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>28</v>
@@ -45879,7 +45879,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>198</v>
@@ -45974,7 +45974,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>237</v>
@@ -46069,7 +46069,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>191</v>
@@ -46164,7 +46164,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>78</v>
@@ -46259,7 +46259,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>200</v>
@@ -46354,7 +46354,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>60</v>
@@ -46449,7 +46449,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>40</v>
@@ -46544,7 +46544,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>28</v>
@@ -46639,7 +46639,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>110</v>
@@ -46734,7 +46734,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>28</v>
@@ -46829,7 +46829,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>110</v>
@@ -47019,7 +47019,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>28</v>
@@ -47114,7 +47114,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>28</v>
@@ -47304,7 +47304,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>28</v>
@@ -47399,7 +47399,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>28</v>
@@ -47494,7 +47494,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>28</v>
@@ -47589,7 +47589,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>28</v>
@@ -47684,7 +47684,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>110</v>
@@ -47779,7 +47779,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>237</v>
@@ -47874,7 +47874,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>28</v>
@@ -47969,7 +47969,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>487</v>
@@ -48064,7 +48064,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>28</v>
@@ -48252,7 +48252,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>28</v>
@@ -48347,7 +48347,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>28</v>
@@ -48442,7 +48442,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>47</v>
@@ -48537,7 +48537,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>28</v>
@@ -48632,7 +48632,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>28</v>
@@ -48727,7 +48727,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>136</v>
@@ -48822,7 +48822,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>28</v>
@@ -48917,7 +48917,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>136</v>
@@ -49012,7 +49012,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>28</v>
@@ -49107,7 +49107,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>28</v>
@@ -49202,7 +49202,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>28</v>
@@ -49297,7 +49297,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>28</v>
@@ -49388,7 +49388,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>28</v>
@@ -49481,7 +49481,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>110</v>
@@ -49572,7 +49572,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>28</v>
@@ -49663,7 +49663,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>28</v>
@@ -49758,7 +49758,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>28</v>
@@ -49853,7 +49853,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>172</v>
@@ -49948,7 +49948,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>28</v>
@@ -50043,7 +50043,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>136</v>
